--- a/backend/expense/management/documents/t_exp_qty_2407.xlsx
+++ b/backend/expense/management/documents/t_exp_qty_2407.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\expense\management\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\ykth\backend\expense\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7080C40-CE1F-465A-AD7C-6A0892206A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DD64F-C8BA-423C-91BD-8CB9DF897809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gider Miktar" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>Rep Month</t>
   </si>
@@ -60,6 +60,99 @@
   </si>
   <si>
     <t>001-G-1000</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-001</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-002</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-003</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-005</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-007</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-008</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-011</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-018</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-029</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-037</t>
+  </si>
+  <si>
+    <t>D-01.ALT-02.SNT-043</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-001</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-002</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-003</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-004</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-005</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-006</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-007</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-009</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-010</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-011</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-013</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-016</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-017</t>
+  </si>
+  <si>
+    <t>D-01.ALT-04.TNL-018</t>
+  </si>
+  <si>
+    <t>999-SHG-9999</t>
+  </si>
+  <si>
+    <t>102-TNL-1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Doğuş Teknik</t>
+  </si>
+  <si>
+    <t>Doğuş Teknik Y.01</t>
+  </si>
+  <si>
+    <t>FFAK</t>
   </si>
 </sst>
 </file>
@@ -69,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-\ #,##0;\-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +213,14 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -147,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,13 +301,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +340,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,24 +649,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BO408"/>
+  <dimension ref="A1:BP408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="43" width="11.90625" customWidth="1"/>
-    <col min="44" max="55" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="44" width="11.85546875" customWidth="1"/>
+    <col min="45" max="56" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,274 +680,275 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2">
         <v>45200</v>
       </c>
-      <c r="F1" s="2">
-        <f>+EDATE(E1,1)</f>
+      <c r="G1" s="2">
+        <f>+EDATE(F1,1)</f>
         <v>45231</v>
       </c>
-      <c r="G1" s="2">
-        <f t="shared" ref="G1:BC1" si="0">+EDATE(F1,1)</f>
+      <c r="H1" s="2">
+        <f t="shared" ref="H1:BD1" si="0">+EDATE(G1,1)</f>
         <v>45261</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <f t="shared" si="0"/>
         <v>45292</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <f t="shared" si="0"/>
         <v>45323</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <f t="shared" si="0"/>
         <v>45413</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <f t="shared" si="0"/>
         <v>45444</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>45474</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>45505</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>45536</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <f t="shared" si="0"/>
         <v>45597</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <f t="shared" si="0"/>
         <v>45627</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <f t="shared" si="0"/>
         <v>45689</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <f t="shared" si="0"/>
         <v>45748</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <f t="shared" si="0"/>
         <v>45839</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <f t="shared" si="0"/>
         <v>45901</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <f t="shared" si="0"/>
         <v>45931</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <f t="shared" si="0"/>
         <v>45962</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <f t="shared" si="0"/>
         <v>46023</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <f t="shared" si="0"/>
         <v>46054</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <f t="shared" si="0"/>
         <v>46082</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <f t="shared" si="0"/>
         <v>46113</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <f t="shared" si="0"/>
         <v>46143</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <f t="shared" si="0"/>
         <v>46174</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <f t="shared" si="0"/>
         <v>46204</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <f t="shared" si="0"/>
         <v>46235</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <f t="shared" si="0"/>
         <v>46266</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="2">
         <f t="shared" si="0"/>
         <v>46296</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AQ1" s="2">
         <f t="shared" si="0"/>
         <v>46327</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="2">
         <f t="shared" si="0"/>
         <v>46357</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AS1" s="2">
         <f t="shared" si="0"/>
         <v>46388</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="2">
         <f t="shared" si="0"/>
         <v>46419</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AU1" s="2">
         <f t="shared" si="0"/>
         <v>46447</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="2">
         <f t="shared" si="0"/>
         <v>46478</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AW1" s="2">
         <f t="shared" si="0"/>
         <v>46508</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="2">
         <f t="shared" si="0"/>
         <v>46539</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <f t="shared" si="0"/>
         <v>46569</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <f t="shared" si="0"/>
         <v>46600</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BA1" s="2">
         <f t="shared" si="0"/>
         <v>46631</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="2">
         <f t="shared" si="0"/>
         <v>46661</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BC1" s="2">
         <f t="shared" si="0"/>
         <v>46692</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="2">
         <f t="shared" si="0"/>
         <v>46722</v>
       </c>
-      <c r="BD1" s="2">
-        <f t="shared" ref="BD1" si="1">+EDATE(BC1,1)</f>
+      <c r="BE1" s="2">
+        <f t="shared" ref="BE1" si="1">+EDATE(BD1,1)</f>
         <v>46753</v>
       </c>
-      <c r="BE1" s="2">
-        <f t="shared" ref="BE1" si="2">+EDATE(BD1,1)</f>
+      <c r="BF1" s="2">
+        <f t="shared" ref="BF1" si="2">+EDATE(BE1,1)</f>
         <v>46784</v>
       </c>
-      <c r="BF1" s="2">
-        <f t="shared" ref="BF1" si="3">+EDATE(BE1,1)</f>
+      <c r="BG1" s="2">
+        <f t="shared" ref="BG1" si="3">+EDATE(BF1,1)</f>
         <v>46813</v>
       </c>
-      <c r="BG1" s="2">
-        <f t="shared" ref="BG1" si="4">+EDATE(BF1,1)</f>
+      <c r="BH1" s="2">
+        <f t="shared" ref="BH1" si="4">+EDATE(BG1,1)</f>
         <v>46844</v>
       </c>
-      <c r="BH1" s="2">
-        <f t="shared" ref="BH1" si="5">+EDATE(BG1,1)</f>
+      <c r="BI1" s="2">
+        <f t="shared" ref="BI1" si="5">+EDATE(BH1,1)</f>
         <v>46874</v>
       </c>
-      <c r="BI1" s="2">
-        <f t="shared" ref="BI1" si="6">+EDATE(BH1,1)</f>
+      <c r="BJ1" s="2">
+        <f t="shared" ref="BJ1" si="6">+EDATE(BI1,1)</f>
         <v>46905</v>
       </c>
-      <c r="BJ1" s="2">
-        <f t="shared" ref="BJ1" si="7">+EDATE(BI1,1)</f>
+      <c r="BK1" s="2">
+        <f t="shared" ref="BK1" si="7">+EDATE(BJ1,1)</f>
         <v>46935</v>
       </c>
-      <c r="BK1" s="2">
-        <f t="shared" ref="BK1" si="8">+EDATE(BJ1,1)</f>
+      <c r="BL1" s="2">
+        <f t="shared" ref="BL1" si="8">+EDATE(BK1,1)</f>
         <v>46966</v>
       </c>
-      <c r="BL1" s="2">
-        <f t="shared" ref="BL1" si="9">+EDATE(BK1,1)</f>
+      <c r="BM1" s="2">
+        <f t="shared" ref="BM1" si="9">+EDATE(BL1,1)</f>
         <v>46997</v>
       </c>
-      <c r="BM1" s="2">
-        <f t="shared" ref="BM1" si="10">+EDATE(BL1,1)</f>
+      <c r="BN1" s="2">
+        <f t="shared" ref="BN1" si="10">+EDATE(BM1,1)</f>
         <v>47027</v>
       </c>
-      <c r="BN1" s="2">
-        <f t="shared" ref="BN1" si="11">+EDATE(BM1,1)</f>
+      <c r="BO1" s="2">
+        <f t="shared" ref="BO1" si="11">+EDATE(BN1,1)</f>
         <v>47058</v>
       </c>
-      <c r="BO1" s="2">
-        <f t="shared" ref="BO1" si="12">+EDATE(BN1,1)</f>
+      <c r="BP1" s="2">
+        <f t="shared" ref="BP1" si="12">+EDATE(BO1,1)</f>
         <v>47088</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="4">
         <v>0</v>
       </c>
@@ -845,28 +965,28 @@
         <v>0</v>
       </c>
       <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
         <v>51459</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>34135.370000000003</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>40000</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>185000</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>240000</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>560000</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>550000</v>
-      </c>
-      <c r="R2" s="4">
-        <v>540000</v>
       </c>
       <c r="S2" s="4">
         <v>540000</v>
@@ -935,16 +1055,16 @@
         <v>540000</v>
       </c>
       <c r="AO2" s="4">
+        <v>540000</v>
+      </c>
+      <c r="AP2" s="4">
         <v>160000</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>75000</v>
       </c>
       <c r="AQ2" s="4">
         <v>75000</v>
       </c>
       <c r="AR2" s="4">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="AS2" s="4">
         <v>0</v>
@@ -979,1223 +1099,1928 @@
       <c r="BC2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="BD2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>12090</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9489.42</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>7730.1640000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>393</v>
+      </c>
+      <c r="K4">
+        <v>-39.189</v>
+      </c>
+      <c r="L4">
+        <v>326.76600000000002</v>
+      </c>
+      <c r="M4">
+        <v>7.3551084993823679E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>117.965</v>
+      </c>
+      <c r="L6">
+        <v>55</v>
+      </c>
+      <c r="M6">
+        <v>-2.6099999985262912E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1.954</v>
+      </c>
+      <c r="M7">
+        <v>12.275138200000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>343</v>
+      </c>
+      <c r="K11">
+        <v>762.91</v>
+      </c>
+      <c r="L11" s="8">
+        <v>529.52099999999996</v>
+      </c>
+      <c r="M11">
+        <v>1062.5190999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>17.301569999999998</v>
+      </c>
+      <c r="K12">
+        <v>34.706000000000003</v>
+      </c>
+      <c r="L12">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="M12">
+        <v>27.728130171520007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>612</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1230</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <v>114</v>
+      </c>
+      <c r="K14">
+        <v>426</v>
+      </c>
+      <c r="L14">
+        <v>420</v>
+      </c>
+      <c r="M14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1353.0989999999999</v>
+      </c>
+      <c r="M15">
+        <v>5832.6714000000029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>12.093</v>
+      </c>
+      <c r="M16">
+        <v>86.115600499999942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3366</v>
+      </c>
+      <c r="M17">
+        <v>10332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>8.7449999999999992</v>
+      </c>
+      <c r="M19">
+        <v>51.804544899999982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>230.51300000000001</v>
+      </c>
+      <c r="M20">
+        <v>683.12693500724981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>252</v>
+      </c>
+      <c r="K22" s="8">
+        <v>5652</v>
+      </c>
+      <c r="L22" s="8">
+        <v>7524</v>
+      </c>
+      <c r="M22">
+        <v>14649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>226504</v>
+      </c>
+      <c r="L29" s="8">
+        <v>283287.908</v>
+      </c>
+      <c r="M29">
+        <v>356674.79100000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
     </row>
   </sheetData>
